--- a/100-ClusterData.xlsx
+++ b/100-ClusterData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DFD2BD-DF54-4050-AC68-E9B5E81617DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908D8E7-12B9-46EE-A279-5D3786B58F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
   <si>
     <t>Soccer v3 Scores</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1625,634 +1625,639 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="2">
+        <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="B59" s="2">
+        <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>111</v>
+      <c r="C61" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>191</v>
+      <c r="C68" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B80" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B81" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>164</v>
+      <c r="C83" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>116</v>
+      <c r="C84" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>169</v>
+      <c r="C85" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>124</v>
+      <c r="C86" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>147</v>
+      <c r="C87" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>117</v>
+      <c r="C90" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="C92" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>125</v>
+      <c r="C108" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>177</v>
+      <c r="C109" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>118</v>
+      <c r="C110" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>190</v>
+      <c r="C111" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="B115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>181</v>
       </c>
     </row>
